--- a/src/test/resources/LoginData.xlsx
+++ b/src/test/resources/LoginData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uvaraj/eclipse-workspace/dsAlgo/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3DD44A-80A3-5045-BE4A-2B6E5135976A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0F77B1-4A68-484A-AB41-8D33757E10BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{85B7EBF6-B78D-EE4E-85FF-7FB55503B994}"/>
+    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{85B7EBF6-B78D-EE4E-85FF-7FB55503B994}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -66,6 +67,19 @@
   </si>
   <si>
     <t>print("hello")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lst=[ 1, 6, 3, 5, 3, 4 ]
+i=4
+if i in lst:
+	print("exist")
+</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
@@ -116,10 +130,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE90E4B-4718-2144-A7AF-82A3B1CDB89B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -513,6 +530,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061A20F0-2B62-6949-B0C2-56C08073B37C}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E45AF2-26CF-C24E-AA28-236D94E00AC0}">
   <dimension ref="A1:A3"/>
   <sheetViews>
